--- a/stock/data/오리온.xlsx
+++ b/stock/data/오리온.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1656"/>
+  <dimension ref="A1:G1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38533,10 +38533,769 @@
         <v>91000</v>
       </c>
       <c r="F1656" t="n">
-        <v>114650</v>
+        <v>115564</v>
       </c>
       <c r="G1656" t="n">
         <v>-0.8714596949891068</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>91700</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>96100</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>90700</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>95500</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>524004</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>4.945054945054945</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>95400</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>95600</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>93200</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>93200</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>188248</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>-2.408376963350785</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>95700</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>92000</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>95300</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>239092</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2.253218884120172</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>96000</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>97400</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>94900</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>95700</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>201101</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.4197271773347324</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>94700</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>97400</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>96400</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>284657</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.7314524555903866</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>96900</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>98600</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>95800</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>97200</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>300800</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.8298755186721992</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>97400</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>97700</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>96100</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>97200</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>216593</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>95400</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>98100</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>94600</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>96500</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>284138</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>-0.720164609053498</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>96500</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>97100</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>93800</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>95600</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>244809</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>-0.932642487046632</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>95100</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>97200</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>96300</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>138360</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>0.7322175732217573</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>95700</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>97600</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>95700</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>226595</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>-0.6230529595015576</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>96300</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>98500</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>90800</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>91100</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>616044</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>-4.806687565308255</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>91300</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>92200</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>90800</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>91200</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>324051</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0.1097694840834248</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>90500</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>91200</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>89200</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>90300</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>337783</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>-0.9868421052631579</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>91100</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>92500</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>90600</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>92500</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>210246</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2.436323366555925</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>92200</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>92400</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>91200</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>92100</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>145670</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>-0.4324324324324325</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>92600</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>91700</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>176242</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>1.085776330076004</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>92600</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>93800</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>91900</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>92400</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>192665</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>-0.7518796992481203</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>93100</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>93200</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>91400</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>92100</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>146389</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>-0.3246753246753247</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>92600</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>91700</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>93500</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>156306</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>1.520086862106406</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>93000</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>93700</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>92700</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>92900</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>133387</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>-0.6417112299465241</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>93200</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>92100</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>92900</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>147117</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>93000</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>93300</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>92300</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>93000</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>123050</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>93400</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>93600</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>92600</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>93400</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>167173</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>0.4301075268817204</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>93400</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>92600</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>92700</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>160627</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>-0.7494646680942184</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>92700</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>91400</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>91700</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>271400</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>-1.078748651564186</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>92400</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>92500</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>91800</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>342391</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0.109051254089422</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>91900</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>91800</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>207684</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>92200</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>90400</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>91300</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>308132</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>-0.5446623093681917</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>91700</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>92600</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>91300</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>92400</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>228040</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>1.204819277108434</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>92700</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>92700</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>190608</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>-0.5411255411255411</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>92600</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>95500</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>94800</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>461613</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>3.155603917301415</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>94800</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>94800</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>92700</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>255100</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>-2.215189873417721</v>
       </c>
     </row>
   </sheetData>
